--- a/scripts/Roster.xlsx
+++ b/scripts/Roster.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="148">
   <si>
     <t>Andrew</t>
   </si>
@@ -461,9 +461,6 @@
   </si>
   <si>
     <t>612-616-3296</t>
-  </si>
-  <si>
-    <t>612-616-3297</t>
   </si>
 </sst>
 </file>
@@ -867,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:E51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:IV51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25"/>
@@ -1882,17 +1879,6 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="D51" s="4">
-        <v>33258</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/Roster.xlsx
+++ b/scripts/Roster.xlsx
@@ -358,9 +358,6 @@
     <t>Ilana</t>
   </si>
   <si>
-    <t>Guest</t>
-  </si>
-  <si>
     <t>Piglanski</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>participant</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -461,6 +455,12 @@
   </si>
   <si>
     <t>612-616-3296</t>
+  </si>
+  <si>
+    <t>visitor</t>
+  </si>
+  <si>
+    <t>local</t>
   </si>
 </sst>
 </file>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:IV51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25"/>
@@ -881,22 +881,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -936,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -956,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -976,7 +976,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -996,7 +996,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1016,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1036,7 +1036,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1056,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1076,7 +1076,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1096,7 +1096,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1116,7 +1116,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1136,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1156,7 +1156,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1176,7 +1176,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1196,7 +1196,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1216,7 +1216,7 @@
         <v>47</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1236,7 +1236,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1256,7 +1256,7 @@
         <v>53</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1276,7 +1276,7 @@
         <v>56</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1296,7 +1296,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1316,7 +1316,7 @@
         <v>62</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1336,7 +1336,7 @@
         <v>65</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1356,7 +1356,7 @@
         <v>68</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1376,7 +1376,7 @@
         <v>71</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1396,7 +1396,7 @@
         <v>74</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1416,7 +1416,7 @@
         <v>77</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1436,7 +1436,7 @@
         <v>80</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1456,7 +1456,7 @@
         <v>82</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1476,7 +1476,7 @@
         <v>85</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1496,7 +1496,7 @@
         <v>87</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1516,7 +1516,7 @@
         <v>89</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1536,7 +1536,7 @@
         <v>91</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1556,7 +1556,7 @@
         <v>94</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1576,7 +1576,7 @@
         <v>97</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1596,7 +1596,7 @@
         <v>98</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1616,7 +1616,7 @@
         <v>102</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1636,7 +1636,7 @@
         <v>104</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1656,7 +1656,7 @@
         <v>107</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1676,7 +1676,7 @@
         <v>111</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1696,15 +1696,15 @@
         <v>109</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>2</v>
@@ -1713,18 +1713,18 @@
         <v>33249</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>13</v>
@@ -1733,18 +1733,18 @@
         <v>33250</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>2</v>
@@ -1753,18 +1753,18 @@
         <v>33251</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>2</v>
@@ -1773,18 +1773,18 @@
         <v>33252</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>2</v>
@@ -1793,18 +1793,18 @@
         <v>33253</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
@@ -1813,18 +1813,18 @@
         <v>33254</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
@@ -1833,18 +1833,18 @@
         <v>33255</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>2</v>
@@ -1853,18 +1853,18 @@
         <v>33256</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>2</v>
@@ -1873,10 +1873,10 @@
         <v>33257</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Roster.xlsx
+++ b/scripts/Roster.xlsx
@@ -10,14 +10,14 @@
     <sheet name="SH-31-211.xls" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SH-31-211.xls'!$B$1:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SH-31-211.xls'!$B$1:$F$41</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="149">
   <si>
     <t>Andrew</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>local</t>
+  </si>
+  <si>
+    <t>Nikki</t>
   </si>
 </sst>
 </file>
@@ -864,22 +867,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:F50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="3" width="11" style="3"/>
-    <col min="4" max="4" width="11.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="3"/>
+    <col min="1" max="4" width="11" style="3"/>
+    <col min="5" max="5" width="11.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -887,995 +890,998 @@
         <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
         <v>33007</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
         <v>33506</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
         <v>33390</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
         <v>33312</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
         <v>32050</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
         <v>32896</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
         <v>32692</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
         <v>33096</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
         <v>33299</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
         <v>32621</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
         <v>33318</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
         <v>32528</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4">
         <v>32485</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4">
         <v>33157</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
         <v>32534</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4">
         <v>33342</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
         <v>32527</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
         <v>33450</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4">
         <v>31926</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4">
         <v>33842</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4">
         <v>33245</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
         <v>33149</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4">
         <v>33032</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4">
         <v>32911</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4">
         <v>33537</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4">
         <v>33132</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4">
         <v>33684</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4">
         <v>33104</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
         <v>32538</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
         <v>32840</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4">
         <v>32550</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="4">
         <v>32914</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
         <v>32800</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="4">
         <v>32475</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="4">
         <v>33086</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
         <v>33036</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4">
         <v>32949</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="4">
         <v>33428</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="4">
         <v>33127</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4">
         <v>33248</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
         <v>33249</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="4">
         <v>33250</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4">
         <v>33251</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
         <v>33252</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
         <v>33253</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="4">
         <v>33254</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4">
         <v>33255</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
         <v>33256</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
         <v>33257</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>147</v>
       </c>
     </row>

--- a/scripts/Roster.xlsx
+++ b/scripts/Roster.xlsx
@@ -463,7 +463,7 @@
     <t>local</t>
   </si>
   <si>
-    <t>Nikki</t>
+    <t>nickName</t>
   </si>
 </sst>
 </file>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25"/>

--- a/scripts/Roster.xlsx
+++ b/scripts/Roster.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="153">
   <si>
     <t>Andrew</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Abern</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>847-436-9123</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Berkowitz</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>732-403-7118</t>
   </si>
   <si>
@@ -464,6 +458,24 @@
   </si>
   <si>
     <t>nickName</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>xx@asdf.com</t>
   </si>
 </sst>
 </file>
@@ -867,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25"/>
@@ -882,30 +894,36 @@
     <col min="8" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -913,976 +931,1270 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4">
         <v>33007</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E3" s="4">
         <v>33506</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4">
         <v>33390</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E5" s="4">
         <v>33312</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E6" s="4">
         <v>32050</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E7" s="4">
         <v>32896</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E8" s="4">
         <v>32692</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E9" s="4">
         <v>33096</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E10" s="4">
         <v>33299</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E11" s="4">
         <v>32621</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E12" s="4">
         <v>33318</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E13" s="4">
         <v>32528</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E14" s="4">
         <v>32485</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E15" s="4">
         <v>33157</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E16" s="4">
         <v>32534</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E17" s="4">
         <v>33342</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E18" s="4">
         <v>32527</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E19" s="4">
         <v>33450</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E20" s="4">
         <v>31926</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E21" s="4">
         <v>33842</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E22" s="4">
         <v>33245</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E23" s="4">
         <v>33149</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E24" s="4">
         <v>33032</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E25" s="4">
         <v>32911</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E26" s="4">
         <v>33537</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E27" s="4">
         <v>33132</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E28" s="4">
         <v>33684</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E29" s="4">
         <v>33104</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E30" s="4">
         <v>32538</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E31" s="4">
         <v>32840</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E32" s="4">
         <v>32550</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E33" s="4">
         <v>32914</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E34" s="4">
         <v>32800</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E35" s="4">
         <v>32475</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="B36" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E36" s="4">
         <v>33086</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E37" s="4">
         <v>33036</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E38" s="4">
         <v>32949</v>
       </c>
       <c r="F38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E39" s="4">
         <v>33428</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E40" s="4">
         <v>33127</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E41" s="4">
         <v>33248</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E42" s="4">
         <v>33249</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E43" s="4">
         <v>33250</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E44" s="4">
         <v>33251</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E45" s="4">
         <v>33252</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E46" s="4">
         <v>33253</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E47" s="4">
         <v>33254</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="E48" s="4">
         <v>33255</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E49" s="4">
         <v>33256</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E50" s="4">
         <v>33257</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>147</v>
+      <c r="H50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Roster.xlsx
+++ b/scripts/Roster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10680" tabRatio="101"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10620" tabRatio="101"/>
   </bookViews>
   <sheets>
     <sheet name="SH-31-211.xls" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="212">
+  <si>
+    <t>email</t>
+  </si>
   <si>
     <t>Andrew</t>
   </si>
@@ -25,7 +28,7 @@
     <t>Abern</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>abern.andrew@gmail.com</t>
   </si>
   <si>
     <t>847-436-9123</t>
@@ -40,6 +43,9 @@
     <t>Babajoni</t>
   </si>
   <si>
+    <t>kbabajoni@aol.com</t>
+  </si>
+  <si>
     <t>224-522-0773</t>
   </si>
   <si>
@@ -49,6 +55,9 @@
     <t>Berg Einhorn</t>
   </si>
   <si>
+    <t>Benberein@gmail.com</t>
+  </si>
+  <si>
     <t>847-338-0445</t>
   </si>
   <si>
@@ -58,7 +67,7 @@
     <t>Berkowitz</t>
   </si>
   <si>
-    <t>Female</t>
+    <t>kaylaberkowitz@aol.com</t>
   </si>
   <si>
     <t>732-403-7118</t>
@@ -70,12 +79,18 @@
     <t>Beslow</t>
   </si>
   <si>
+    <t>lucas.beslow@gmail.com</t>
+  </si>
+  <si>
     <t>847-275-6437</t>
   </si>
   <si>
     <t>Erin</t>
   </si>
   <si>
+    <t>ebeelow@aol.com</t>
+  </si>
+  <si>
     <t>847-971-2450</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t>Block</t>
   </si>
   <si>
+    <t>block.molly93@gmail.com</t>
+  </si>
+  <si>
     <t>773-320-0471</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t>Chambers</t>
   </si>
   <si>
+    <t>Rchambers1111@gmail.com</t>
+  </si>
+  <si>
     <t>224-374-3325</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t>Cohen</t>
   </si>
   <si>
+    <t>jackcohen54@gmail.com</t>
+  </si>
+  <si>
     <t>636-236-3410</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t>Colby</t>
   </si>
   <si>
+    <t>jasoncolby93@gmail.com</t>
+  </si>
+  <si>
     <t>847-494-9970</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t>Crossley</t>
   </si>
   <si>
+    <t>jcross1366@aol.com</t>
+  </si>
+  <si>
     <t>847-224-4502</t>
   </si>
   <si>
@@ -130,6 +160,9 @@
     <t>Davis</t>
   </si>
   <si>
+    <t>davisfam2@mindspring.com</t>
+  </si>
+  <si>
     <t>314-348-0665</t>
   </si>
   <si>
@@ -139,18 +172,27 @@
     <t>Dreifuss</t>
   </si>
   <si>
+    <t>csdreifuss@gmail.com</t>
+  </si>
+  <si>
     <t>847-917-9786</t>
   </si>
   <si>
     <t>Alison</t>
   </si>
   <si>
+    <t>alison.dreifuss@yahoo.com</t>
+  </si>
+  <si>
     <t>847-987-9786</t>
   </si>
   <si>
     <t>Farkas</t>
   </si>
   <si>
+    <t>andrewfarkas93@gmail.com</t>
+  </si>
+  <si>
     <t>314-324-3321</t>
   </si>
   <si>
@@ -160,6 +202,9 @@
     <t>Ferrer</t>
   </si>
   <si>
+    <t>becca.ferrer@gmail.com</t>
+  </si>
+  <si>
     <t>217-649-0524</t>
   </si>
   <si>
@@ -169,6 +214,9 @@
     <t>Friedman</t>
   </si>
   <si>
+    <t>maxrfriedman@gmail.com</t>
+  </si>
+  <si>
     <t>636-627-7667</t>
   </si>
   <si>
@@ -178,6 +226,9 @@
     <t>Geleerd</t>
   </si>
   <si>
+    <t>trggq7@aol.com</t>
+  </si>
+  <si>
     <t>773-728-7865</t>
   </si>
   <si>
@@ -187,6 +238,9 @@
     <t>Goodman</t>
   </si>
   <si>
+    <t>briegoodman91@comcast.net</t>
+  </si>
+  <si>
     <t>630-881-2623</t>
   </si>
   <si>
@@ -199,12 +253,18 @@
     <t>Hellinger</t>
   </si>
   <si>
+    <t>sophiehellinger@yahoo.com</t>
+  </si>
+  <si>
     <t>312-543-0789</t>
   </si>
   <si>
     <t>Isaacs</t>
   </si>
   <si>
+    <t>kimberlydisaacs@gmail.com</t>
+  </si>
+  <si>
     <t>847-714-3255</t>
   </si>
   <si>
@@ -214,6 +274,9 @@
     <t>Joseph</t>
   </si>
   <si>
+    <t>joshfjoseph@gmail.com</t>
+  </si>
+  <si>
     <t>847-212-9732</t>
   </si>
   <si>
@@ -223,6 +286,9 @@
     <t>Kirnarskaya</t>
   </si>
   <si>
+    <t>janegk15@gmail.com</t>
+  </si>
+  <si>
     <t>224-392-5440</t>
   </si>
   <si>
@@ -232,6 +298,9 @@
     <t>Lewinthal</t>
   </si>
   <si>
+    <t>jlewint2@gmail.com</t>
+  </si>
+  <si>
     <t>847-971-1425</t>
   </si>
   <si>
@@ -241,6 +310,9 @@
     <t>Lupone</t>
   </si>
   <si>
+    <t>13lele13@gmail.com</t>
+  </si>
+  <si>
     <t>339-364-0262</t>
   </si>
   <si>
@@ -250,6 +322,9 @@
     <t>Magid</t>
   </si>
   <si>
+    <t>smagid4@gmail.com</t>
+  </si>
+  <si>
     <t>224-723-4090</t>
   </si>
   <si>
@@ -259,12 +334,18 @@
     <t>Masterson</t>
   </si>
   <si>
+    <t>lizmasterson1422@yahoo.com</t>
+  </si>
+  <si>
     <t>773-895-3901</t>
   </si>
   <si>
     <t>Naidoff</t>
   </si>
   <si>
+    <t>davidnaidoff@gmail.com</t>
+  </si>
+  <si>
     <t>847-420-4155</t>
   </si>
   <si>
@@ -274,24 +355,36 @@
     <t>Posner</t>
   </si>
   <si>
+    <t>gusposner123@gmail.com</t>
+  </si>
+  <si>
     <t>412-523-4474</t>
   </si>
   <si>
     <t>Schraiber</t>
   </si>
   <si>
+    <t>mkschraibs@yahoo.com</t>
+  </si>
+  <si>
     <t>847-910-5074</t>
   </si>
   <si>
     <t>Schwartz</t>
   </si>
   <si>
+    <t>leftd11@att.net</t>
+  </si>
+  <si>
     <t>847-494-5260</t>
   </si>
   <si>
     <t>Shaps</t>
   </si>
   <si>
+    <t>jshaps11@me.com</t>
+  </si>
+  <si>
     <t>847-987-6722</t>
   </si>
   <si>
@@ -301,6 +394,9 @@
     <t>Shenberg</t>
   </si>
   <si>
+    <t>RHCPZenberg@gmail.com</t>
+  </si>
+  <si>
     <t>847-997-1731</t>
   </si>
   <si>
@@ -310,9 +406,15 @@
     <t>Shyken</t>
   </si>
   <si>
+    <t>stephanie.shyken@gmail.com</t>
+  </si>
+  <si>
     <t>314-761-3388</t>
   </si>
   <si>
+    <t>Isolomon072@gmail.com</t>
+  </si>
+  <si>
     <t>847-987-9802</t>
   </si>
   <si>
@@ -325,12 +427,18 @@
     <t>Tarragano</t>
   </si>
   <si>
+    <t>aetarrag@aol.com</t>
+  </si>
+  <si>
     <t>224-688-1777</t>
   </si>
   <si>
     <t>Ulman</t>
   </si>
   <si>
+    <t>jasonulman18@gmail.com</t>
+  </si>
+  <si>
     <t>847-431-7759</t>
   </si>
   <si>
@@ -340,18 +448,27 @@
     <t>Yanovsky</t>
   </si>
   <si>
+    <t>rosieyanovsky710@gmail.com</t>
+  </si>
+  <si>
     <t>224-688-8485</t>
   </si>
   <si>
     <t>Zimmerman</t>
   </si>
   <si>
+    <t>az1126@gmail.com</t>
+  </si>
+  <si>
     <t>612-616-3287</t>
   </si>
   <si>
     <t>Arielle</t>
   </si>
   <si>
+    <t>ariellezisme@yahoo.com</t>
+  </si>
+  <si>
     <t>217-493-4320</t>
   </si>
   <si>
@@ -394,9 +511,6 @@
     <t>Chotzen</t>
   </si>
   <si>
-    <t>Oron</t>
-  </si>
-  <si>
     <t>Kayitz</t>
   </si>
   <si>
@@ -409,9 +523,6 @@
     <t>Kalifon</t>
   </si>
   <si>
-    <t>Fruchter</t>
-  </si>
-  <si>
     <t>lastName</t>
   </si>
   <si>
@@ -424,53 +535,131 @@
     <t>role</t>
   </si>
   <si>
+    <t>visitor</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>barP@gmail.com</t>
+  </si>
+  <si>
+    <t>OrtalTamami@yahoo.com</t>
+  </si>
+  <si>
+    <t>nickName</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Haddassah</t>
+  </si>
+  <si>
+    <t>Joshie</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Ariella</t>
+  </si>
+  <si>
+    <t>Benji</t>
+  </si>
+  <si>
+    <t>Sherif</t>
+  </si>
+  <si>
+    <t>Mahmoud</t>
+  </si>
+  <si>
+    <t>Levin</t>
+  </si>
+  <si>
+    <t>Yossi</t>
+  </si>
+  <si>
+    <t>Nameri</t>
+  </si>
+  <si>
+    <t>gil@gmail.com</t>
+  </si>
+  <si>
+    <t>urirui@yahoo.com</t>
+  </si>
+  <si>
+    <t>yaronyaron@hoodeeehooo.com</t>
+  </si>
+  <si>
+    <t>hanivs@wix.com</t>
+  </si>
+  <si>
+    <t>oronf@gmail.com</t>
+  </si>
+  <si>
+    <t>dartaniel@northwestern.com</t>
+  </si>
+  <si>
+    <t>Bliss</t>
+  </si>
+  <si>
+    <t>Dartaniel</t>
+  </si>
+  <si>
+    <t>cookiemonster@food.com</t>
+  </si>
+  <si>
+    <t>haddassah@gmail.com</t>
+  </si>
+  <si>
+    <t>codeMasterSherif@theBIZ.com</t>
+  </si>
+  <si>
+    <t>costaff@shorashim.com</t>
+  </si>
+  <si>
+    <t>yossi@shorash.com</t>
+  </si>
+  <si>
+    <t>partymuffin1!</t>
+  </si>
+  <si>
+    <t>sherif1234</t>
+  </si>
+  <si>
+    <t>haddassah13</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>birthday</t>
-  </si>
-  <si>
-    <t>612-616-3288</t>
-  </si>
-  <si>
-    <t>612-616-3289</t>
-  </si>
-  <si>
-    <t>612-616-3290</t>
-  </si>
-  <si>
-    <t>612-616-3291</t>
-  </si>
-  <si>
-    <t>612-616-3292</t>
-  </si>
-  <si>
-    <t>612-616-3293</t>
-  </si>
-  <si>
-    <t>612-616-3294</t>
-  </si>
-  <si>
-    <t>612-616-3295</t>
-  </si>
-  <si>
-    <t>612-616-3296</t>
-  </si>
-  <si>
-    <t>visitor</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>nickName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,14 +669,21 @@
     </font>
     <font>
       <b/>
-      <sz val="8.5"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8.5"/>
+      <sz val="10"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -495,6 +691,14 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -520,10 +724,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -536,8 +741,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -867,1027 +1076,1423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="4" width="11" style="3"/>
     <col min="5" max="5" width="11.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="3"/>
+    <col min="8" max="8" width="14" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>171</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E2" s="4">
         <v>33007</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E3" s="4">
         <v>33506</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E4" s="4">
         <v>33390</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E5" s="4">
         <v>33312</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E6" s="4">
         <v>32050</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E7" s="4">
         <v>32896</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E8" s="4">
         <v>32692</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E9" s="4">
         <v>33096</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E10" s="4">
         <v>33299</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E11" s="4">
         <v>32621</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E12" s="4">
         <v>33318</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E13" s="4">
         <v>32528</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E14" s="4">
         <v>32485</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E15" s="4">
         <v>33157</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E16" s="4">
         <v>32534</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E17" s="4">
         <v>33342</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E18" s="4">
         <v>32527</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E19" s="4">
         <v>33450</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E20" s="4">
         <v>31926</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E21" s="4">
         <v>33842</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E22" s="4">
         <v>33245</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E23" s="4">
         <v>33149</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E24" s="4">
         <v>33032</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E25" s="4">
         <v>32911</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E26" s="4">
         <v>33537</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E27" s="4">
         <v>33132</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E28" s="4">
         <v>33684</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E29" s="4">
         <v>33104</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E30" s="4">
         <v>32538</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E31" s="4">
         <v>32840</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E32" s="4">
         <v>32550</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>91</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E33" s="4">
         <v>32914</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E34" s="4">
         <v>32800</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E35" s="4">
         <v>32475</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E36" s="4">
         <v>33086</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E37" s="4">
         <v>33036</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E38" s="4">
         <v>32949</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E39" s="4">
         <v>33428</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>110</v>
+        <v>148</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E40" s="4">
         <v>33127</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E41" s="4">
         <v>33248</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E42" s="4">
-        <v>33249</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>137</v>
+        <v>33583</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E43" s="4">
-        <v>33250</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>138</v>
+        <v>33281</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E44" s="4">
-        <v>33251</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>139</v>
+        <v>33402</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E45" s="4">
-        <v>33252</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>140</v>
+        <v>33464</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E46" s="4">
-        <v>33253</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>141</v>
+        <v>33434</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E47" s="4">
-        <v>33254</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>142</v>
+        <v>33497</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E48" s="4">
-        <v>33255</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>143</v>
+        <v>33528</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E49" s="4">
-        <v>33256</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>144</v>
+        <v>33346</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="E50" s="4">
-        <v>33257</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>145</v>
+        <v>33561</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>147</v>
+        <v>173</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="4">
+        <v>30267</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="4">
+        <v>25431</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" s="4">
+        <v>30073</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="4">
+        <v>27800</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I45" r:id="rId1"/>
+    <hyperlink ref="I47" r:id="rId2"/>
+    <hyperlink ref="I48" r:id="rId3"/>
+    <hyperlink ref="I49" r:id="rId4"/>
+    <hyperlink ref="I50" r:id="rId5"/>
+    <hyperlink ref="I51" r:id="rId6"/>
+    <hyperlink ref="I52" r:id="rId7"/>
+    <hyperlink ref="I53" r:id="rId8"/>
+    <hyperlink ref="I54" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
--- a/scripts/Roster.xlsx
+++ b/scripts/Roster.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="225">
   <si>
     <t>email</t>
   </si>
@@ -653,6 +653,45 @@
   </si>
   <si>
     <t>birthday</t>
+  </si>
+  <si>
+    <t>612-616-3288</t>
+  </si>
+  <si>
+    <t>612-616-3289</t>
+  </si>
+  <si>
+    <t>612-616-3290</t>
+  </si>
+  <si>
+    <t>612-616-3291</t>
+  </si>
+  <si>
+    <t>612-616-3292</t>
+  </si>
+  <si>
+    <t>612-616-3293</t>
+  </si>
+  <si>
+    <t>612-616-3294</t>
+  </si>
+  <si>
+    <t>612-616-3295</t>
+  </si>
+  <si>
+    <t>612-616-3296</t>
+  </si>
+  <si>
+    <t>612-616-3297</t>
+  </si>
+  <si>
+    <t>612-616-3298</t>
+  </si>
+  <si>
+    <t>612-616-3299</t>
+  </si>
+  <si>
+    <t>612-616-3300</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="76" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2193,6 +2232,9 @@
       <c r="E42" s="4">
         <v>33583</v>
       </c>
+      <c r="F42" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="G42" s="3" t="s">
         <v>173</v>
       </c>
@@ -2216,6 +2258,9 @@
       <c r="E43" s="4">
         <v>33281</v>
       </c>
+      <c r="F43" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="G43" s="3" t="s">
         <v>173</v>
       </c>
@@ -2239,6 +2284,9 @@
       <c r="E44" s="4">
         <v>33402</v>
       </c>
+      <c r="F44" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="G44" s="3" t="s">
         <v>173</v>
       </c>
@@ -2262,6 +2310,9 @@
       <c r="E45" s="4">
         <v>33464</v>
       </c>
+      <c r="F45" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="G45" s="3" t="s">
         <v>173</v>
       </c>
@@ -2285,6 +2336,9 @@
       <c r="E46" s="4">
         <v>33434</v>
       </c>
+      <c r="F46" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="G46" s="3" t="s">
         <v>173</v>
       </c>
@@ -2308,6 +2362,9 @@
       <c r="E47" s="4">
         <v>33497</v>
       </c>
+      <c r="F47" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="G47" s="3" t="s">
         <v>173</v>
       </c>
@@ -2331,6 +2388,9 @@
       <c r="E48" s="4">
         <v>33528</v>
       </c>
+      <c r="F48" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="G48" s="3" t="s">
         <v>173</v>
       </c>
@@ -2354,6 +2414,9 @@
       <c r="E49" s="4">
         <v>33346</v>
       </c>
+      <c r="F49" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="G49" s="3" t="s">
         <v>173</v>
       </c>
@@ -2377,6 +2440,9 @@
       <c r="E50" s="4">
         <v>33561</v>
       </c>
+      <c r="F50" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="G50" s="3" t="s">
         <v>173</v>
       </c>
@@ -2400,6 +2466,9 @@
       <c r="E51" s="4">
         <v>30267</v>
       </c>
+      <c r="F51" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="G51" s="3" t="s">
         <v>179</v>
       </c>
@@ -2423,6 +2492,9 @@
       <c r="E52" s="4">
         <v>25431</v>
       </c>
+      <c r="F52" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="G52" s="3" t="s">
         <v>179</v>
       </c>
@@ -2446,6 +2518,9 @@
       <c r="E53" s="4">
         <v>30073</v>
       </c>
+      <c r="F53" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="G53" s="3" t="s">
         <v>179</v>
       </c>
@@ -2468,6 +2543,9 @@
       </c>
       <c r="E54" s="4">
         <v>27800</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>179</v>

--- a/scripts/Roster.xlsx
+++ b/scripts/Roster.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="225">
   <si>
     <t>email</t>
   </si>
@@ -653,6 +653,45 @@
   </si>
   <si>
     <t>birthday</t>
+  </si>
+  <si>
+    <t>612-616-3288</t>
+  </si>
+  <si>
+    <t>612-616-3289</t>
+  </si>
+  <si>
+    <t>612-616-3290</t>
+  </si>
+  <si>
+    <t>612-616-3291</t>
+  </si>
+  <si>
+    <t>612-616-3292</t>
+  </si>
+  <si>
+    <t>612-616-3293</t>
+  </si>
+  <si>
+    <t>612-616-3294</t>
+  </si>
+  <si>
+    <t>612-616-3295</t>
+  </si>
+  <si>
+    <t>612-616-3296</t>
+  </si>
+  <si>
+    <t>612-616-3297</t>
+  </si>
+  <si>
+    <t>612-616-3298</t>
+  </si>
+  <si>
+    <t>612-616-3299</t>
+  </si>
+  <si>
+    <t>612-616-3300</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="76" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2193,6 +2232,9 @@
       <c r="E42" s="4">
         <v>33583</v>
       </c>
+      <c r="F42" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="G42" s="3" t="s">
         <v>173</v>
       </c>
@@ -2216,6 +2258,9 @@
       <c r="E43" s="4">
         <v>33281</v>
       </c>
+      <c r="F43" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="G43" s="3" t="s">
         <v>173</v>
       </c>
@@ -2239,6 +2284,9 @@
       <c r="E44" s="4">
         <v>33402</v>
       </c>
+      <c r="F44" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="G44" s="3" t="s">
         <v>173</v>
       </c>
@@ -2262,6 +2310,9 @@
       <c r="E45" s="4">
         <v>33464</v>
       </c>
+      <c r="F45" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="G45" s="3" t="s">
         <v>173</v>
       </c>
@@ -2285,6 +2336,9 @@
       <c r="E46" s="4">
         <v>33434</v>
       </c>
+      <c r="F46" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="G46" s="3" t="s">
         <v>173</v>
       </c>
@@ -2308,6 +2362,9 @@
       <c r="E47" s="4">
         <v>33497</v>
       </c>
+      <c r="F47" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="G47" s="3" t="s">
         <v>173</v>
       </c>
@@ -2331,6 +2388,9 @@
       <c r="E48" s="4">
         <v>33528</v>
       </c>
+      <c r="F48" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="G48" s="3" t="s">
         <v>173</v>
       </c>
@@ -2354,6 +2414,9 @@
       <c r="E49" s="4">
         <v>33346</v>
       </c>
+      <c r="F49" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="G49" s="3" t="s">
         <v>173</v>
       </c>
@@ -2377,6 +2440,9 @@
       <c r="E50" s="4">
         <v>33561</v>
       </c>
+      <c r="F50" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="G50" s="3" t="s">
         <v>173</v>
       </c>
@@ -2400,6 +2466,9 @@
       <c r="E51" s="4">
         <v>30267</v>
       </c>
+      <c r="F51" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="G51" s="3" t="s">
         <v>179</v>
       </c>
@@ -2423,6 +2492,9 @@
       <c r="E52" s="4">
         <v>25431</v>
       </c>
+      <c r="F52" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="G52" s="3" t="s">
         <v>179</v>
       </c>
@@ -2446,6 +2518,9 @@
       <c r="E53" s="4">
         <v>30073</v>
       </c>
+      <c r="F53" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="G53" s="3" t="s">
         <v>179</v>
       </c>
@@ -2468,6 +2543,9 @@
       </c>
       <c r="E54" s="4">
         <v>27800</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>179</v>
